--- a/table/model.avg/In.situ.TOU_env_model.avg.xlsx
+++ b/table/model.avg/In.situ.TOU_env_model.avg.xlsx
@@ -410,7 +410,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>15.59092151141023</v>
+        <v>15.59092151141022</v>
       </c>
       <c r="C2">
         <v>3.470879424898151</v>
@@ -419,16 +419,16 @@
         <v>2.666112668839486</v>
       </c>
       <c r="E2">
-        <v>3.20309712654428</v>
+        <v>3.203097126544281</v>
       </c>
       <c r="F2">
         <v>-1.571248695453696</v>
       </c>
       <c r="G2">
-        <v>5.764238643542517</v>
+        <v>5.76423864354252</v>
       </c>
       <c r="H2">
-        <v>-6.808532782617187</v>
+        <v>-6.808532782617189</v>
       </c>
     </row>
     <row r="3">
@@ -438,25 +438,25 @@
         </is>
       </c>
       <c r="B3">
-        <v>15.59092151141023</v>
+        <v>15.59092151141022</v>
       </c>
       <c r="C3">
-        <v>5.685475234367288</v>
+        <v>5.685475234367289</v>
       </c>
       <c r="D3">
-        <v>6.84464293028412</v>
+        <v>6.844642930284123</v>
       </c>
       <c r="E3">
-        <v>8.223229407539577</v>
+        <v>8.223229407539581</v>
       </c>
       <c r="F3">
-        <v>-4.033826627340773</v>
+        <v>-4.033826627340772</v>
       </c>
       <c r="G3">
-        <v>14.79838258192125</v>
+        <v>14.79838258192126</v>
       </c>
       <c r="H3">
-        <v>-17.47937224139648</v>
+        <v>-17.47937224139649</v>
       </c>
     </row>
   </sheetData>
@@ -545,7 +545,7 @@
         <v>0.8986761807367429</v>
       </c>
       <c r="F3">
-        <v>0.3895181525165135</v>
+        <v>0.3895181525165134</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.3895181525165135</v>
+        <v>0.3895181525165134</v>
       </c>
     </row>
     <row r="4">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.3895181525165135</v>
+        <v>0.3895181525165134</v>
       </c>
     </row>
     <row r="5">
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.3895181525165135</v>
+        <v>0.3895181525165134</v>
       </c>
     </row>
     <row r="6">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.3895181525165135</v>
+        <v>0.3895181525165134</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.3895181525165135</v>
+        <v>0.3895181525165134</v>
       </c>
     </row>
   </sheetData>
@@ -685,16 +685,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>15.59092151141023</v>
+        <v>15.59092151141022</v>
       </c>
       <c r="C2">
-        <v>0.8383156485111789</v>
+        <v>0.838315648511179</v>
       </c>
       <c r="D2">
-        <v>0.8741664819352912</v>
+        <v>0.8741664819352913</v>
       </c>
       <c r="E2">
-        <v>17.83518566954655</v>
+        <v>17.83518566954653</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>3.470879424898151</v>
       </c>
       <c r="C3">
-        <v>2.862208629208094</v>
+        <v>2.862208629208096</v>
       </c>
       <c r="D3">
-        <v>2.869515025908879</v>
+        <v>2.86951502590888</v>
       </c>
       <c r="E3">
-        <v>1.209570047049605</v>
+        <v>1.209570047049604</v>
       </c>
       <c r="F3">
         <v>0.2264439</v>
@@ -732,10 +732,10 @@
         <v>2.666112668839486</v>
       </c>
       <c r="C4">
-        <v>3.535636536821157</v>
+        <v>3.535636536821158</v>
       </c>
       <c r="D4">
-        <v>3.554044496983129</v>
+        <v>3.55404449698313</v>
       </c>
       <c r="E4">
         <v>0.7501629962997455</v>
@@ -751,16 +751,16 @@
         </is>
       </c>
       <c r="B5">
-        <v>3.20309712654428</v>
+        <v>3.203097126544281</v>
       </c>
       <c r="C5">
-        <v>4.17680101090745</v>
+        <v>4.176801010907452</v>
       </c>
       <c r="D5">
-        <v>4.192456503397557</v>
+        <v>4.192456503397559</v>
       </c>
       <c r="E5">
-        <v>0.7640143967977956</v>
+        <v>0.7640143967977955</v>
       </c>
       <c r="F5">
         <v>0.4448587</v>
@@ -776,13 +776,13 @@
         <v>-1.571248695453696</v>
       </c>
       <c r="C6">
-        <v>2.083234135637877</v>
+        <v>2.083234135637876</v>
       </c>
       <c r="D6">
-        <v>2.09404113710352</v>
+        <v>2.094041137103519</v>
       </c>
       <c r="E6">
-        <v>0.7503428025425752</v>
+        <v>0.7503428025425753</v>
       </c>
       <c r="F6">
         <v>0.4530483</v>
@@ -795,16 +795,16 @@
         </is>
       </c>
       <c r="B7">
-        <v>5.764238643542517</v>
+        <v>5.76423864354252</v>
       </c>
       <c r="C7">
-        <v>7.383037773478593</v>
+        <v>7.383037773478597</v>
       </c>
       <c r="D7">
-        <v>7.398837215349366</v>
+        <v>7.39883721534937</v>
       </c>
       <c r="E7">
-        <v>0.7790735862635593</v>
+        <v>0.7790735862635594</v>
       </c>
       <c r="F7">
         <v>0.4359364</v>
@@ -817,16 +817,16 @@
         </is>
       </c>
       <c r="B8">
-        <v>-6.808532782617187</v>
+        <v>-6.808532782617189</v>
       </c>
       <c r="C8">
-        <v>8.72551436521141</v>
+        <v>8.725514365211415</v>
       </c>
       <c r="D8">
-        <v>8.74463543042144</v>
+        <v>8.744635430421443</v>
       </c>
       <c r="E8">
-        <v>0.7785953841976299</v>
+        <v>0.7785953841976297</v>
       </c>
       <c r="F8">
         <v>0.4362181</v>
@@ -884,16 +884,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>15.59092151141023</v>
+        <v>15.59092151141022</v>
       </c>
       <c r="C2">
-        <v>0.8383156485111789</v>
+        <v>0.838315648511179</v>
       </c>
       <c r="D2">
-        <v>0.8741664819352912</v>
+        <v>0.8741664819352913</v>
       </c>
       <c r="E2">
-        <v>17.83518566954655</v>
+        <v>17.83518566954653</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -906,19 +906,19 @@
         </is>
       </c>
       <c r="B3">
-        <v>5.685475234367288</v>
+        <v>5.685475234367289</v>
       </c>
       <c r="C3">
-        <v>0.9100928688096601</v>
+        <v>0.9100928688096606</v>
       </c>
       <c r="D3">
-        <v>0.9470309954916684</v>
+        <v>0.9470309954916689</v>
       </c>
       <c r="E3">
-        <v>6.003473235229825</v>
+        <v>6.003473235229823</v>
       </c>
       <c r="F3">
-        <v>1.9e-009</v>
+        <v>1.9e-09</v>
       </c>
     </row>
     <row r="4">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>6.84464293028412</v>
+        <v>6.844642930284123</v>
       </c>
       <c r="C4">
         <v>1.868755230393747</v>
@@ -937,7 +937,7 @@
         <v>1.956346667489327</v>
       </c>
       <c r="E4">
-        <v>3.498686119402435</v>
+        <v>3.498686119402437</v>
       </c>
       <c r="F4">
         <v>0.0004675566</v>
@@ -950,19 +950,19 @@
         </is>
       </c>
       <c r="B5">
-        <v>8.223229407539577</v>
+        <v>8.223229407539581</v>
       </c>
       <c r="C5">
-        <v>1.872462257490581</v>
+        <v>1.87246225749058</v>
       </c>
       <c r="D5">
-        <v>1.960227448658113</v>
+        <v>1.960227448658112</v>
       </c>
       <c r="E5">
-        <v>4.195038393717445</v>
+        <v>4.195038393717449</v>
       </c>
       <c r="F5">
-        <v>2.72825e-005</v>
+        <v>2.72825e-05</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>-4.033826627340773</v>
+        <v>-4.033826627340772</v>
       </c>
       <c r="C6">
         <v>1.099095406462956</v>
@@ -981,7 +981,7 @@
         <v>1.150611701690639</v>
       </c>
       <c r="E6">
-        <v>3.505810536616056</v>
+        <v>3.505810536616057</v>
       </c>
       <c r="F6">
         <v>0.0004552191</v>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>14.79838258192125</v>
+        <v>14.79838258192126</v>
       </c>
       <c r="C7">
         <v>2.499895617810217</v>
@@ -1003,10 +1003,10 @@
         <v>2.617069577348408</v>
       </c>
       <c r="E7">
-        <v>5.654562152266062</v>
+        <v>5.654562152266067</v>
       </c>
       <c r="F7">
-        <v>1.56e-008</v>
+        <v>1.56e-08</v>
       </c>
     </row>
     <row r="8">
@@ -1016,19 +1016,19 @@
         </is>
       </c>
       <c r="B8">
-        <v>-17.47937224139648</v>
+        <v>-17.47937224139649</v>
       </c>
       <c r="C8">
-        <v>2.989789385516182</v>
+        <v>2.989789385516181</v>
       </c>
       <c r="D8">
-        <v>3.129925420793148</v>
+        <v>3.129925420793147</v>
       </c>
       <c r="E8">
-        <v>5.58459704032407</v>
+        <v>5.584597040324073</v>
       </c>
       <c r="F8">
-        <v>2.34e-008</v>
+        <v>2.34e-08</v>
       </c>
     </row>
   </sheetData>
